--- a/DragPrediction/NL2VP DragX/1T/n/5/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1T/n/5/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.8965517239999999E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.11333404718258679</v>
+        <v>0.40192708136017091</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>3.1736536437340415</v>
+        <v>11.255023340153699</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E41" si="0">A3*$E$1</f>
-        <v>0.49005950331886367</v>
+        <v>1.7379436343999994</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.11361972529888016</v>
+        <v>0.40294020825667443</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.50615454974747109</v>
+        <v>1.7950229957765915</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.1175132279925124</v>
+        <v>0.41674809929049966</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.49105417804901652</v>
+        <v>1.7414711419860383</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.11570515839586365</v>
+        <v>0.41033597377356362</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.34956885045974379</v>
+        <v>1.2397085544237247</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>8.837333321426033E-2</v>
+        <v>0.31340657791611032</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>5.2422412144388433E-2</v>
+        <v>0.18591047999114713</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>9.5580667752979354E-2</v>
+        <v>0.33896661929420357</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>9.3272136684570253E-2</v>
+        <v>0.33077966067390374</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>9.8031617248177688E-2</v>
+        <v>0.34765864963861726</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>7.5324948294173563E-2</v>
+        <v>0.26713187584934839</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.10933817180091322</v>
+        <v>0.38775613653325952</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.12440853574000414</v>
+        <v>0.44120157101347313</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>7.7868003805252065E-2</v>
+        <v>0.27615055033167751</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-4.2981312740095041E-2</v>
+        <v>-0.15242863033756907</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>7.8538302334227289E-2</v>
+        <v>0.27852769240052988</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-4.2207563399987609E-2</v>
+        <v>-0.14968461102735492</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>7.3381149534458678E-2</v>
+        <v>0.260238401366918</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-3.0200433028140496E-2</v>
+        <v>-0.1071026068914516</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>6.9777547605892568E-2</v>
+        <v>0.24745861240200936</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-9.8880385986694214E-2</v>
+        <v>-0.35066871722468079</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>8.1810879635888428E-2</v>
+        <v>0.29013353791721858</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>8.9448605813057854E-3</v>
+        <v>3.1721991722627359E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>8.0656487503896701E-2</v>
+        <v>0.28603960964155151</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>5.2052109533057851E-3</v>
+        <v>1.8459724137051998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>7.4475509812524793E-2</v>
+        <v>0.26411943309087116</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-8.2961408493471087E-3</v>
+        <v>-2.9421376550323119E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>6.0978609351421492E-2</v>
+        <v>0.21625411861039184</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-3.8437317945483475E-2</v>
+        <v>-0.13631383861419852</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>5.1809425658814051E-2</v>
+        <v>0.18373658895676787</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-0.10358377147917769</v>
+        <v>-0.36734877101698993</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>4.9995981781909095E-2</v>
+        <v>0.17730540412948792</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-0.10169360117563636</v>
+        <v>-0.36064548412075742</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>3.8229877261673553E-2</v>
+        <v>0.13557817240733699</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-9.6646376093144623E-2</v>
+        <v>-0.34274603998367875</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>1.5247527332764462E-2</v>
+        <v>5.4073725514666438E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,10 +1094,11 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-6.4099890045991731E-2</v>
+        <v>-0.22732340688572678</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>